--- a/COM1024/excel/assignment2/tuannqph08378_com1024_assignment2.xlsx
+++ b/COM1024/excel/assignment2/tuannqph08378_com1024_assignment2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19140" windowHeight="8445" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19140" windowHeight="8445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Danh_sach" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,8 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Danh_sach!$A:$D,Danh_sach!$4:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Tong_ket!$A:$D,Tong_ket!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -638,12 +639,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;VNĐ&quot;"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -937,12 +938,27 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -965,12 +981,24 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="30"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:pie3DChart>
@@ -1037,13 +1065,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1055,7 +1094,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1078,12 +1127,24 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="30"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:pie3DChart>
@@ -1156,13 +1217,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1312,6 +1384,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1346,6 +1419,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1521,14 +1595,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" customWidth="1"/>
@@ -1545,7 +1619,7 @@
     <col min="14" max="14" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="18.75">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>174</v>
       </c>
@@ -1556,7 +1630,7 @@
       <c r="K1" s="14"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="23.25">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="1"/>
       <c r="C2" s="15" t="s">
@@ -1567,7 +1641,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="20.25">
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>175</v>
       </c>
@@ -1580,7 +1654,7 @@
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
     </row>
-    <row r="4" spans="1:14" ht="24.95" customHeight="1">
+    <row r="4" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.75">
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1668,7 +1742,7 @@
       </c>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14" ht="18.75">
+    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1712,7 +1786,7 @@
       </c>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="18.75">
+    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1756,7 +1830,7 @@
       </c>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" ht="18.75">
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1800,7 +1874,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" ht="18.75">
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1844,7 +1918,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" ht="18.75">
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1888,7 +1962,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" ht="18.75">
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1932,7 +2006,7 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" ht="18.75">
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -1976,7 +2050,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" ht="18.75">
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -2020,7 +2094,7 @@
       </c>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" ht="18.75">
+    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -2064,7 +2138,7 @@
       </c>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="18.75">
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -2108,7 +2182,7 @@
       </c>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:14" ht="18.75">
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -2152,7 +2226,7 @@
       </c>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" ht="18.75">
+    <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -2196,7 +2270,7 @@
       </c>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" ht="18.75">
+    <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -2240,7 +2314,7 @@
       </c>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" ht="18.75">
+    <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -2284,7 +2358,7 @@
       </c>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" ht="18.75">
+    <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>16</v>
       </c>
@@ -2328,7 +2402,7 @@
       </c>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:14" ht="18.75">
+    <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -2372,7 +2446,7 @@
       </c>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="1:14" ht="18.75">
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -2416,7 +2490,7 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14" ht="18.75">
+    <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -2460,7 +2534,7 @@
       </c>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="1:14" ht="18.75">
+    <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -2504,7 +2578,7 @@
       </c>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" spans="1:14" ht="18.75">
+    <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -2548,7 +2622,7 @@
       </c>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:14" ht="18.75">
+    <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -2592,7 +2666,7 @@
       </c>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:14" ht="18.75">
+    <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -2636,7 +2710,7 @@
       </c>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" ht="18.75">
+    <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -2680,7 +2754,7 @@
       </c>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:14" ht="18.75">
+    <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -2724,7 +2798,7 @@
       </c>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:14" ht="18.75">
+    <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>26</v>
       </c>
@@ -2768,7 +2842,7 @@
       </c>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:14" ht="18.75">
+    <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>27</v>
       </c>
@@ -2812,7 +2886,7 @@
       </c>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:14" ht="18.75">
+    <row r="32" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>28</v>
       </c>
@@ -2856,7 +2930,7 @@
       </c>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" spans="1:14" ht="18.75">
+    <row r="33" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>29</v>
       </c>
@@ -2900,7 +2974,7 @@
       </c>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="1:14" ht="18.75">
+    <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>30</v>
       </c>
@@ -2944,7 +3018,7 @@
       </c>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="1:14" ht="18.75">
+    <row r="35" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>31</v>
       </c>
@@ -2988,7 +3062,7 @@
       </c>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="1:14" ht="18.75">
+    <row r="36" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>32</v>
       </c>
@@ -3032,7 +3106,7 @@
       </c>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="1:14" ht="18.75">
+    <row r="37" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>33</v>
       </c>
@@ -3076,7 +3150,7 @@
       </c>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:14" ht="18.75">
+    <row r="38" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>34</v>
       </c>
@@ -3120,7 +3194,7 @@
       </c>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:14" ht="18.75">
+    <row r="39" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>35</v>
       </c>
@@ -3164,7 +3238,7 @@
       </c>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="1:14" ht="18.75">
+    <row r="40" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>36</v>
       </c>
@@ -3208,7 +3282,7 @@
       </c>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="1:14" ht="18.75">
+    <row r="41" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>37</v>
       </c>
@@ -3252,7 +3326,7 @@
       </c>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="1:14" ht="18.75">
+    <row r="42" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>38</v>
       </c>
@@ -3296,7 +3370,7 @@
       </c>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="1:14" ht="18.75">
+    <row r="43" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>39</v>
       </c>
@@ -3340,7 +3414,7 @@
       </c>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="1:14" ht="18.75">
+    <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>40</v>
       </c>
@@ -3397,18 +3471,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
@@ -3421,17 +3495,17 @@
     <col min="13" max="13" width="20" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" s="3" customFormat="1">
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K3" s="18"/>
       <c r="L3" s="17"/>
       <c r="M3" s="24"/>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1">
+    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K4" s="18"/>
       <c r="L4" s="17"/>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:13" ht="24.95" customHeight="1">
+    <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +3546,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75">
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -3517,7 +3591,7 @@
         <v xml:space="preserve"> Học Bổng</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75">
+    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -3562,7 +3636,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75">
+    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -3607,7 +3681,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75">
+    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -3652,7 +3726,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75">
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -3697,7 +3771,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75">
+    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -3742,7 +3816,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75">
+    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -3787,7 +3861,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75">
+    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -3832,7 +3906,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75">
+    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -3877,7 +3951,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75">
+    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -3922,7 +3996,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75">
+    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -3967,7 +4041,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18.75">
+    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -4012,7 +4086,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18.75">
+    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -4057,7 +4131,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18.75">
+    <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -4102,7 +4176,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18.75">
+    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -4147,7 +4221,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18.75">
+    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -4192,7 +4266,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18.75">
+    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -4237,7 +4311,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.75">
+    <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -4282,7 +4356,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18.75">
+    <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -4327,7 +4401,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.75">
+    <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -4372,7 +4446,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18.75">
+    <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -4417,7 +4491,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18.75">
+    <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -4462,7 +4536,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18.75">
+    <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -4507,7 +4581,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18.75">
+    <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -4552,7 +4626,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18.75">
+    <row r="30" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -4597,7 +4671,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18.75">
+    <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>26</v>
       </c>
@@ -4642,7 +4716,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18.75">
+    <row r="32" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>27</v>
       </c>
@@ -4687,7 +4761,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18.75">
+    <row r="33" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>28</v>
       </c>
@@ -4732,7 +4806,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18.75">
+    <row r="34" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>29</v>
       </c>
@@ -4777,7 +4851,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18.75">
+    <row r="35" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>30</v>
       </c>
@@ -4822,7 +4896,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18.75">
+    <row r="36" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>31</v>
       </c>
@@ -4867,7 +4941,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18.75">
+    <row r="37" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>32</v>
       </c>
@@ -4912,7 +4986,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18.75">
+    <row r="38" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>33</v>
       </c>
@@ -4957,7 +5031,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18.75">
+    <row r="39" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>34</v>
       </c>
@@ -5002,7 +5076,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18.75">
+    <row r="40" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>35</v>
       </c>
@@ -5047,7 +5121,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18.75">
+    <row r="41" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>36</v>
       </c>
@@ -5092,7 +5166,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="18.75">
+    <row r="42" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>37</v>
       </c>
@@ -5137,7 +5211,7 @@
         <v>Học Bổng</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="18.75">
+    <row r="43" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>38</v>
       </c>
@@ -5182,7 +5256,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="18.75">
+    <row r="44" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>39</v>
       </c>
@@ -5227,7 +5301,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="18.75">
+    <row r="45" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>40</v>
       </c>
@@ -5295,14 +5369,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -5312,7 +5386,7 @@
     <col min="6" max="6" width="7" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>174</v>
       </c>
@@ -5320,13 +5394,13 @@
       <c r="C1" s="44"/>
       <c r="D1" s="26"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="27"/>
       <c r="D2" s="26"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="45" t="s">
         <v>199</v>
@@ -5334,7 +5408,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="47" t="s">
@@ -5342,7 +5416,7 @@
       </c>
       <c r="D4" s="47"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>190</v>
       </c>
@@ -5362,7 +5436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>201</v>
       </c>
@@ -5386,7 +5460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>202</v>
       </c>
@@ -5410,7 +5484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>188</v>
       </c>
@@ -5434,7 +5508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>196</v>
       </c>
@@ -5458,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>198</v>
       </c>
@@ -5482,7 +5556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
       <c r="C12" s="32"/>
